--- a/data/Alhué.xlsx
+++ b/data/Alhué.xlsx
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,11 +4279,11 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,11 +4327,11 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">

--- a/data/Alhué.xlsx
+++ b/data/Alhué.xlsx
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,11 +4279,11 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,11 +4327,11 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">

--- a/data/Alhué.xlsx
+++ b/data/Alhué.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J143"/>
+  <dimension ref="A1:J144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,12 +424,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Minera Florida 100</t>
+          <t>Planta de Despelonado y Secado de Nueces</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINERA FLORIDA LTDA.</t>
+          <t>AgroReservas de Chile, SPA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>35000</v>
+        <v>7000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/11/2021</t>
+          <t>18/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153438740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155665051&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,12 +472,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PARQUE FOTOVOLTAICO ALHUE SUNLIGHT</t>
+          <t>Minera Florida 100</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Alhué Sunlight SpA</t>
+          <t>MINERA FLORIDA LTDA.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>10000</v>
+        <v>35000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>21/01/2021</t>
+          <t>23/11/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149734781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153438740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Actualizaciones de Ingeniería y Construcción Obras 7ª, 8ª y 9ª Etapas Peraltamiento Embalse Carén</t>
+          <t>PARQUE FOTOVOLTAICO ALHUE SUNLIGHT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -530,20 +530,20 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Alhué Sunlight SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>473000</v>
+        <v>10000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>07/08/2020</t>
+          <t>21/01/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147557521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149734781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nuevo Campamento Carén - División El Teniente</t>
+          <t>Actualizaciones de Ingeniería y Construcción Obras 7ª, 8ª y 9ª Etapas Peraltamiento Embalse Carén</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,11 +587,11 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>25000</v>
+        <v>473000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>07/04/2020</t>
+          <t>07/08/2020</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146082969&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147557521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>Nuevo Campamento Carén - División El Teniente</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>23/12/2019</t>
+          <t>07/04/2020</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146082969&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EXPLORACIONES MINERA FLORIDA</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -674,30 +674,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Minera Florida Ltda.</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>03/12/2019</t>
+          <t>23/12/2019</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145082072&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Exploraciones Minera Florida</t>
+          <t>EXPLORACIONES MINERA FLORIDA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -735,17 +735,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>26/11/2019</t>
+          <t>03/12/2019</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145063977&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145082072&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,12 +760,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ampliación Botadero de Estériles Mirador</t>
+          <t>Exploraciones Minera Florida</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -779,11 +779,11 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>400</v>
+        <v>20000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>06/06/2019</t>
+          <t>26/11/2019</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143365346&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145063977&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -831,17 +831,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>27/05/2019</t>
+          <t>06/06/2019</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143259301&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143365346&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,12 +856,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BORRAR - Prueba de Firma CU</t>
+          <t>Ampliación Botadero de Estériles Mirador</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Empresa Prueba de Ingreso Proyecto</t>
+          <t>Minera Florida Ltda.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>21/03/2019</t>
+          <t>27/05/2019</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Sin Información</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142811655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143259301&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ajustes de Aspectos Constructivos en Proyecto Peraltamiento Embalse Carén, Séptima Etapa</t>
+          <t>BORRAR - Prueba de Firma CU</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Empresa Prueba de Ingreso Proyecto</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>06/10/2017</t>
+          <t>21/03/2019</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Sin Información</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132768537&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142811655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Ajustes de Aspectos Constructivos en Proyecto Peraltamiento Embalse Carén, Séptima Etapa</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,20 +962,20 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>06/10/2017</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132768537&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,40 +1000,40 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Alhué</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>GR PEUMO SpA</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>32000</v>
+        <v>10000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>14/03/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131221518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>16/02/2016</t>
+          <t>14/03/2016</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131159173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131221518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>17/01/2016</t>
+          <t>16/02/2016</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131101331&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131159173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1167,17 +1167,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>14/01/2016</t>
+          <t>17/01/2016</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131046187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131101331&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,30 +1192,30 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Planta Fotovoltaica Alhué</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>GR PEUMO SpA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>5000</v>
+        <v>32000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>14/01/2016</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131046187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,11 +1495,11 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1508,12 +1508,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Bodegas de Almacenamiento de Productos Químicos Peligrosos</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,16 +1538,16 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Minera Florida Ltda.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>Bodegas de Almacenamiento de Productos Químicos Peligrosos</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,30 +1586,30 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>Minera Florida Ltda.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>20/11/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128831391&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>20/11/2013</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128831391&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2050</v>
+        <v>5000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>19/07/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Peraltamiento Tranque de Relaves Adosado</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,20 +1730,20 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Minera Florida Limitada</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3500</v>
+        <v>2050</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>19/07/2013</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8277162&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>Peraltamiento Tranque de Relaves Adosado</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,30 +1778,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>Minera Florida Limitada</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2050</v>
+        <v>3500</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>31/05/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8277162&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>250</v>
+        <v>2050</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>31/05/2013</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1887,17 +1887,17 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1935,7 +1935,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>22/02/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,30 +2008,30 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Depósito de Relaves en Pasta Minera Florida</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Minera Florida Ltda.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>52000</v>
+        <v>1500</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>18/02/2013</t>
+          <t>22/02/2013</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7889333&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Depósito de relaves en pasta Minera Florida</t>
+          <t>Depósito de Relaves en Pasta Minera Florida</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Minera Florida Limitada</t>
+          <t>Minera Florida Ltda.</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -2079,17 +2079,17 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>12/02/2013</t>
+          <t>18/02/2013</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7865116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7889333&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,40 +2104,40 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Optimización Capacidad de Beneficio - División El Teniente .</t>
+          <t>Depósito de relaves en pasta Minera Florida</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Minera Florida Limitada</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>12800</v>
+        <v>52000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>02/08/2012</t>
+          <t>12/02/2013</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7188020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7865116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Optimización Capacidad de Beneficio - División El Teniente .</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,15 +2167,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>15000</v>
+        <v>12800</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>02/08/2012</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7188020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,30 +2258,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>12/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,30 +2306,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>12/04/2012</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,30 +2402,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>13/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>18/01/2012</t>
+          <t>13/02/2012</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,30 +2498,30 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>18/01/2012</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>"Depositación de relaves filtrados interior mina"</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,30 +2594,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Minera Florida Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>02/01/2012</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6451815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Planta de Generación Eléctrica Minera Florida EXP N° 171/2011</t>
+          <t>"Depositación de relaves filtrados interior mina"</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2651,11 +2651,11 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>5200</v>
+        <v>4000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>25/11/2011</t>
+          <t>02/01/2012</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6313274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6451815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Planta de Generación Eléctrica Minera Florida EXP N° 171/2011</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Minera Florida Ltda.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>800</v>
+        <v>5200</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>22/11/2011</t>
+          <t>25/11/2011</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6313274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>09/11/2011</t>
+          <t>22/11/2011</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,20 +2786,20 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Transportes Alcayaga y Rovira Ltda.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>08/11/2011</t>
+          <t>09/11/2011</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Transportes Alcayaga y Rovira Ltda.</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>08/11/2011</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,40 +2872,40 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Depósito de Pastas de Minera Florida</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>MINERA FLORIDA LTDA.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>25000</v>
+        <v>200</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>05/07/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5779053&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,40 +2920,40 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Depósito de Pastas de Minera Florida</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>MINERA FLORIDA LTDA.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>200</v>
+        <v>25000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>05/07/2011</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5779053&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>14/04/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3039,17 +3039,17 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>29/03/2011</t>
+          <t>14/04/2011</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,25 +3079,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Servicios Integrados de Transporte Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>230</v>
+        <v>12000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>06/10/2010</t>
+          <t>29/03/2011</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4981553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3131,21 +3131,21 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>15/09/2010</t>
+          <t>06/10/2010</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4935880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4981553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte terrestre de Cianuro de Sodio entre la II y VI región</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,25 +3175,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Servicios Integrados de Transporte Ltda.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>20</v>
+        <v>223</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>26/08/2010</t>
+          <t>15/09/2010</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4877350&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4935880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Transporte terrestre de Cianuro de Sodio entre la II y VI región</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,25 +3223,25 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1750</v>
+        <v>20</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>26/08/2010</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4877350&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3279,17 +3279,17 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,15 +3319,15 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1000</v>
+        <v>1750</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>02/08/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Planta de Procesamiento de Relaves</t>
+          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,30 +3362,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Minera Florida Ltda.</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>560000</v>
+        <v>1000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>18/06/2010</t>
+          <t>02/08/2010</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Planta de Procesamiento de Relaves</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,30 +3410,30 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Florida Ltda.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1750</v>
+        <v>560000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>18/06/2010</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4687109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio Sólido desde los puertos de Valparaíso o San Antonio hasta la Mina Florida</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,25 +3463,25 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>02/06/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4633544&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Sustancias Toxicas desde la II Region a VI Region</t>
+          <t>Transporte de Cianuro de Sodio Sólido desde los puertos de Valparaíso o San Antonio hasta la Mina Florida</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,25 +3511,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>25/05/2010</t>
+          <t>02/06/2010</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604312&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4633544&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Transporte Terrestre de Sustancias Toxicas desde la II Region a VI Region</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,25 +3559,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>4050</v>
+        <v>1</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>25/05/2010</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604312&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,15 +3607,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,25 +3655,25 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3759,7 +3759,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,25 +3799,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,25 +3847,25 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Proyecto Instalación de Nueva Línea de Chancado Faena Alhué, Minera Florida Ltda. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,30 +3890,30 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>MINERA FLORIDA LTDA.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>900</v>
+        <v>350</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>01/10/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4054604&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Instalación de Nueva Línea de Chancado Faena Alhué, Minera Florida Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,20 +3938,20 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>MINERA FLORIDA LTDA.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>22</v>
+        <v>900</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>01/10/2009</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4054604&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Alhué (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,30 +3986,30 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Alhué</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>22/04/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3640124&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>REPOSICION CONSTRUCCION DE PUENTE LOS LAGARTOS (e-seia)</t>
+          <t>Plan Regulador Comunal de Alhué (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,25 +4039,25 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Ilustre Municipalidad de Alhué</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1297</v>
+        <v>0</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>10/03/2009</t>
+          <t>22/04/2009</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3612741&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3640124&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Subestación y Tendido Eléctrico Sector Alhué (e-seia)</t>
+          <t>REPOSICION CONSTRUCCION DE PUENTE LOS LAGARTOS (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,25 +4087,25 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Emelectric S.A.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>3531</v>
+        <v>1297</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>06/03/2009</t>
+          <t>10/03/2009</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3615321&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3612741&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Subestación y Tendido Eléctrico Sector Alhué (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,15 +4135,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Emelectric S.A.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>3531</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>04/12/2008</t>
+          <t>06/03/2009</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3615321&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4191,17 +4191,17 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>26/11/2008</t>
+          <t>04/12/2008</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,30 +4226,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>26/11/2008</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4287,17 +4287,17 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,11 +4327,11 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4383,7 +4383,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,20 +4418,20 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,30 +4466,30 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,25 +4519,25 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Transportes Cinco Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>3408</v>
+        <v>250</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>18/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,20 +4562,20 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Cinco Limitada</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>160</v>
+        <v>3408</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>18/08/2008</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4623,17 +4623,17 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>01/08/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4658,30 +4658,30 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>01/08/2008</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4719,17 +4719,17 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>14/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,25 +4759,25 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>14/07/2008</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,15 +4807,15 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,20 +4850,20 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>03/03/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,25 +4903,25 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>13/11/2007</t>
+          <t>03/03/2008</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,30 +4946,30 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>429</v>
+        <v>234</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>13/11/2007</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,25 +4999,25 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,15 +5047,15 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,25 +5095,25 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>13/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Ampliación Planta Abatimiento de Molibdeno y Regulación de pH en RIL Carén (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,15 +5143,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>15000</v>
+        <v>210</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>27/07/2007</t>
+          <t>13/08/2007</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2282573&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Ampliación Planta Abatimiento de Molibdeno y Regulación de pH en RIL Carén (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,25 +5191,25 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>27/07/2007</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2282573&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Proyecto Expansión Planta y Mina de Minera Florida Ltda. Expansión Minera Florida (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,30 +5234,30 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Minera Florida Ltda.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>35000</v>
+        <v>300</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>29/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2230982&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Proyecto de Ampliación Botadero de Estéril Existente Nv 620 (e-seia)</t>
+          <t>Proyecto Expansión Planta y Mina de Minera Florida Ltda. Expansión Minera Florida (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5291,11 +5291,11 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>89</v>
+        <v>35000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>05/04/2007</t>
+          <t>29/06/2007</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2089704&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2230982&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,30 +5320,30 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Peraltamiento Embalse Carén</t>
+          <t>Proyecto de Ampliación Botadero de Estéril Existente Nv 620 (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Minera Florida Ltda.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>492000</v>
+        <v>89</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>30/03/2007</t>
+          <t>05/04/2007</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2097590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2089704&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,12 +5368,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Peraltamiento Embalse Carén</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -5383,15 +5383,15 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1</v>
+        <v>492000</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>30/03/2007</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2097590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Incremento de producción a 140 kt/d - División El Teniente (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,15 +5431,15 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>05/03/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2025700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>Incremento de producción a 140 kt/d - División El Teniente (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,25 +5479,25 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>20/02/2007</t>
+          <t>05/03/2007</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2025700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Incremento de producción a 140 kt/d - División El Teniente (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,11 +5527,11 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2008857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Incremento de producción a 140 kt/d - División El Teniente (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,15 +5575,15 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>20/02/2007</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2008857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5618,16 +5618,16 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5666,30 +5666,30 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN PARCIAL DEL TRAZADO ADUCCIÓN PLANTA ABATIMIENTO MOLIBDENO (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,25 +5719,25 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>3000</v>
+        <v>200</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>05/01/2007</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1914371&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>MODIFICACIÓN PARCIAL DEL TRAZADO ADUCCIÓN PLANTA ABATIMIENTO MOLIBDENO (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,25 +5767,25 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>200</v>
+        <v>3000</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>05/01/2007</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1914371&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,7 +5815,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F114" t="n">
@@ -5823,17 +5823,17 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,15 +5863,15 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>22/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5919,17 +5919,17 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>22/11/2006</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5967,7 +5967,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>02/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,25 +6007,25 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>02/11/2006</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,15 +6055,15 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6111,17 +6111,17 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>PLANTA ABATIMIENTO DE MOLIBDENO Y REGULACION DE pH EN RIL CARÉN (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,25 +6151,25 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>20000</v>
+        <v>500</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>08/02/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1273492&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>PLANTA ABATIMIENTO DE MOLIBDENO Y REGULACION DE pH EN RIL CARÉN (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,15 +6199,15 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>72</v>
+        <v>20000</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>08/02/2006</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1273492&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Optimización Producción Mina - Concentrador División El Teniente, 131 Ktpd (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,15 +6247,15 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>03/01/2006</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1196534&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Optimización Producción Mina - Concentrador División El Teniente, 131 Ktpd (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,25 +6295,25 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>03/01/2006</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1196534&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,25 +6343,25 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,15 +6391,15 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6439,11 +6439,11 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>PLANTA ABATIMIENTO DE MOLIBDENO EN RIL CARÉN (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,25 +6487,25 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>18000</v>
+        <v>170</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>09/08/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=970649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>MPRMS 73, Analisis Integrado Plan Intercomunal de Talagante-Melipilla, Buin - Paine MPRMS 73, Analisis Integrado Plan Intercomunal de (e-seia)</t>
+          <t>PLANTA ABATIMIENTO DE MOLIBDENO EN RIL CARÉN (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6530,30 +6530,30 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Veronica Serrano madrid</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>18000</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>27/07/2005</t>
+          <t>09/08/2005</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=953327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=970649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Tranque de Relaves Alhué Adosado al existente (e-seia)</t>
+          <t>MPRMS 73, Analisis Integrado Plan Intercomunal de Talagante-Melipilla, Buin - Paine MPRMS 73, Analisis Integrado Plan Intercomunal de (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,15 +6583,15 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Minera Florida Ltda.</t>
+          <t>Veronica Serrano madrid</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>2800</v>
+        <v>0</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>05/05/2004</t>
+          <t>27/07/2005</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=341073&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=953327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Aumento Capacidad de Beneficio (e-seia)</t>
+          <t>Tranque de Relaves Alhué Adosado al existente (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6626,20 +6626,20 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Minera Florida Ltda.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>16000</v>
+        <v>2800</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>10/12/2003</t>
+          <t>05/05/2004</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=223890&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=341073&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Empacadora de uvas Tío Plaza (e-seia)</t>
+          <t>Modificación Proyecto Aumento Capacidad de Beneficio (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6674,20 +6674,20 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Agrícola Tío Plaza Ltda.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>3200</v>
+        <v>16000</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>18/08/2003</t>
+          <t>10/12/2003</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=128764&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=223890&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,12 +6712,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
+          <t>Empacadora de uvas Tío Plaza (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -6727,15 +6727,15 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Agrícola Tío Plaza Ltda.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>23/12/2002</t>
+          <t>18/08/2003</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=128764&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,12 +6760,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Actualización diseño de ingeniería alcantarillado y planta de tratamiento de aguas servidas de villa Alhué</t>
+          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -6775,15 +6775,15 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Alhué</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>1956</v>
+        <v>0</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>05/07/2002</t>
+          <t>23/12/2002</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5697&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Botadero de Estéril Mina Pedro Valencia Alhué</t>
+          <t>Actualización diseño de ingeniería alcantarillado y planta de tratamiento de aguas servidas de villa Alhué</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,15 +6823,15 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Minera Florida Ltda.</t>
+          <t>I. Municipalidad de Alhué</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>20</v>
+        <v>1956</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>19/04/2002</t>
+          <t>05/07/2002</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5335&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5697&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,30 +6856,30 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
+          <t>Botadero de Estéril Mina Pedro Valencia Alhué</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Minera Florida Ltda.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>1230</v>
+        <v>20</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>28/05/2001</t>
+          <t>19/04/2002</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5335&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,30 +6904,30 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Proyecto de Drenaje Fundo Polulo</t>
+          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Sociedad Anónima Viña Santa Rita</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>85</v>
+        <v>1230</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>26/11/1999</t>
+          <t>28/05/2001</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Lixiviación de Concentrados Alhué</t>
+          <t>Proyecto de Drenaje Fundo Polulo</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,15 +6967,15 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Minera Florida Ltda.</t>
+          <t>Sociedad Anónima Viña Santa Rita</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>4400</v>
+        <v>85</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>24/06/1999</t>
+          <t>26/11/1999</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2034&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Sistema de Servicios de Agua Potable Rural - Localidad La Línea</t>
+          <t>Lixiviación de Concentrados Alhué</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,15 +7015,15 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Minera Florida Ltda.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1730</v>
+        <v>4400</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>11/02/1999</t>
+          <t>24/06/1999</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2034&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Sistema de Servicios de Agua Potable - Localidad de El Asiento</t>
+          <t>Sistema de Servicios de Agua Potable Rural - Localidad La Línea</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7067,7 +7067,7 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>630</v>
+        <v>1730</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,30 +7096,30 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Beneficio</t>
+          <t>Sistema de Servicios de Agua Potable - Localidad de El Asiento</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>274000</v>
+        <v>630</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>18/01/1999</t>
+          <t>11/02/1999</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,30 +7144,30 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Construcción Alcantarillado Villa Alhué Población Ignacio Carrera Pinto y otras Comuna de Alhué</t>
+          <t>Aumento Capacidad de Beneficio</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Alhué</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>1700</v>
+        <v>274000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>01/07/1998</t>
+          <t>18/01/1999</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1301&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,43 +7192,91 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
+          <t>Construcción Alcantarillado Villa Alhué Población Ignacio Carrera Pinto y otras Comuna de Alhué</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>I. Municipalidad de Alhué</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>1700</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>01/07/1998</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1301&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>Alhué</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
           <t>Ampliación Tranque de Relaves Alhue</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
+      <c r="C144" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
+      <c r="D144" t="inlineStr">
         <is>
           <t>RM</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
+      <c r="E144" t="inlineStr">
         <is>
           <t>Minera Florida Ltda.</t>
         </is>
       </c>
-      <c r="F143" t="n">
+      <c r="F144" t="n">
         <v>700</v>
       </c>
-      <c r="G143" t="inlineStr">
+      <c r="G144" t="inlineStr">
         <is>
           <t>11/01/1995</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
+      <c r="H144" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I143" t="inlineStr">
+      <c r="I144" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=42&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J143" t="inlineStr">
+      <c r="J144" t="inlineStr">
         <is>
           <t>Alhué</t>
         </is>

--- a/data/Alhué.xlsx
+++ b/data/Alhué.xlsx
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,11 +4327,11 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,11 +4375,11 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">

--- a/data/Alhué.xlsx
+++ b/data/Alhué.xlsx
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,11 +4327,11 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,11 +4375,11 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">

--- a/data/Alhué.xlsx
+++ b/data/Alhué.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/04/2022</t>
+          <t>22/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,11 +4327,11 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,11 +4375,11 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">

--- a/data/Alhué.xlsx
+++ b/data/Alhué.xlsx
@@ -4135,7 +4135,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Emelectric S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,11 +4327,11 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,11 +4375,11 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">

--- a/data/Alhué.xlsx
+++ b/data/Alhué.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Alhué.xlsx
+++ b/data/Alhué.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J144"/>
+  <dimension ref="A1:J159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7282,6 +7282,666 @@
         </is>
       </c>
     </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>GFGF</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Empresa Prueba de Ingreso Proyecto</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>0</v>
+      </c>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Eliminados</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128986938&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>Alhué</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Empresa Prueba de Ingreso Proyecto</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>0</v>
+      </c>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Eliminados</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129180190&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>Alhué</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>FDSFSDF</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Empresa Prueba de Ingreso Proyecto</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>0</v>
+      </c>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Eliminados</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129330563&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>Alhué</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>PRUEBA</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Empresa Prueba de Ingreso Proyecto</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>0</v>
+      </c>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Eliminados</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129607275&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>Alhué</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>oooo</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Empresa Prueba de Ingreso Proyecto</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>0</v>
+      </c>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Eliminados</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129973111&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>Alhué</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Transporte de Ácido Sulfúrico en Las Regiones I II y III en Camiones con Estanque de Acero al Carbono</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Empresa Prueba de Ingreso Proyecto</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>0</v>
+      </c>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Eliminados</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130285891&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>Alhué</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>ee2222</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Empresa Prueba de Ingreso Proyecto</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>0</v>
+      </c>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Eliminados</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130414680&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>Alhué</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>dsfsdf</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Empresa Prueba de Ingreso Proyecto</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>0</v>
+      </c>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Eliminados</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130624829&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>Alhué</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>RRR</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Empresa Prueba de Ingreso Proyecto</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>0</v>
+      </c>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Eliminados</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130625046&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>Alhué</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>deee</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Empresa Prueba de Ingreso Proyecto</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>0</v>
+      </c>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Eliminados</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130636954&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>Alhué</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>RFA</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Empresa Prueba de Ingreso Proyecto</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>0</v>
+      </c>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Eliminados</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130709895&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>Alhué</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>eeeee</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Empresa Prueba de Ingreso Proyecto</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>0</v>
+      </c>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Eliminados</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130866310&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>Alhué</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>8888</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Empresa Prueba de Ingreso Proyecto</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>0</v>
+      </c>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Eliminados</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131262455&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>Alhué</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>xxxx</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Empresa Prueba de Ingreso Proyecto</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>0</v>
+      </c>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Eliminados</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131418786&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>Alhué</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>asdasdasd</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Empresa Prueba de Ingreso Proyecto</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>0</v>
+      </c>
+      <c r="G159" t="inlineStr"/>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Eliminados</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129758223&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>Alhué</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/Alhué.xlsx
+++ b/data/Alhué.xlsx
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,11 +4327,11 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,11 +4375,11 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -7376,7 +7376,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>FDSFSDF</t>
+          <t>oooo</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129330563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129973111&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7420,7 +7420,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>PRUEBA</t>
+          <t>FDSFSDF</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7449,7 +7449,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129607275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129330563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7464,7 +7464,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>oooo</t>
+          <t>PRUEBA</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7493,7 +7493,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129973111&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129607275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7508,12 +7508,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico en Las Regiones I II y III en Camiones con Estanque de Acero al Carbono</t>
+          <t>asdasdasd</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -7537,7 +7537,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130285891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129758223&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7552,7 +7552,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>ee2222</t>
+          <t>8888</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7581,7 +7581,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130414680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131262455&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7596,7 +7596,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>dsfsdf</t>
+          <t>xxxx</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7625,7 +7625,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130624829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131418786&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7640,7 +7640,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>RRR</t>
+          <t>Transporte de Ácido Sulfúrico en Las Regiones I II y III en Camiones con Estanque de Acero al Carbono</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7669,7 +7669,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130625046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130285891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7684,7 +7684,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>deee</t>
+          <t>ee2222</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7713,7 +7713,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130636954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130414680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7728,7 +7728,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>RFA</t>
+          <t>dsfsdf</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7757,7 +7757,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130709895&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130624829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7772,7 +7772,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>eeeee</t>
+          <t>RRR</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130866310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130625046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>8888</t>
+          <t>deee</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7845,7 +7845,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131262455&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130636954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7860,7 +7860,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>xxxx</t>
+          <t>RFA</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7889,7 +7889,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131418786&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130709895&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7904,12 +7904,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>asdasdasd</t>
+          <t>eeeee</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -7933,7 +7933,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129758223&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130866310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">

--- a/data/Alhué.xlsx
+++ b/data/Alhué.xlsx
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,11 +4327,11 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,11 +4375,11 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -7376,7 +7376,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>oooo</t>
+          <t>FDSFSDF</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129973111&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129330563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7420,7 +7420,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>FDSFSDF</t>
+          <t>PRUEBA</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7449,7 +7449,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129330563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129607275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7464,7 +7464,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>PRUEBA</t>
+          <t>oooo</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7493,7 +7493,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129607275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129973111&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7508,12 +7508,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>asdasdasd</t>
+          <t>Transporte de Ácido Sulfúrico en Las Regiones I II y III en Camiones con Estanque de Acero al Carbono</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -7537,7 +7537,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129758223&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130285891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7552,7 +7552,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>8888</t>
+          <t>ee2222</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7581,7 +7581,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131262455&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130414680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7596,7 +7596,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>xxxx</t>
+          <t>dsfsdf</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7625,7 +7625,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131418786&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130624829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7640,7 +7640,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico en Las Regiones I II y III en Camiones con Estanque de Acero al Carbono</t>
+          <t>RRR</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7669,7 +7669,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130285891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130625046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7684,7 +7684,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>ee2222</t>
+          <t>deee</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7713,7 +7713,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130414680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130636954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7728,7 +7728,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>dsfsdf</t>
+          <t>RFA</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7757,7 +7757,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130624829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130709895&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7772,7 +7772,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>RRR</t>
+          <t>eeeee</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130625046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130866310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>deee</t>
+          <t>8888</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7845,7 +7845,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130636954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131262455&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7860,7 +7860,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>RFA</t>
+          <t>xxxx</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7889,7 +7889,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130709895&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131418786&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7904,12 +7904,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>eeeee</t>
+          <t>asdasdasd</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -7933,7 +7933,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130866310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129758223&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
